--- a/ope.ed.gov/2010/hate-crimes-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2010.xlsx
+++ b/ope.ed.gov/2010/hate-crimes-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2010.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Hate_Crimes_On_campus_Student_H" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="hate-crimes-on-campus-student-h" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible -Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible -Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Aggravated assault</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Race</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Religion</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Gender</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Disability</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Aggravated Assault</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Race</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Religion</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Gender</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Disability</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Race</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Religion</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Gender</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Disability</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Race</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Religion</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Gender</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Disability</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Simple assault</t>
-  </si>
-  <si>
-    <t>Simple assault - Race</t>
-  </si>
-  <si>
-    <t>Simple assault - Religion</t>
-  </si>
-  <si>
-    <t>Simple assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Simple assault - Gender</t>
-  </si>
-  <si>
-    <t>Simple assault - Disability</t>
-  </si>
-  <si>
-    <t>Simple assault - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Larceny-theft</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Race</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Religion</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Gender</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Disability</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Simple Assault - Race</t>
+  </si>
+  <si>
+    <t>Simple Assault - Religion</t>
+  </si>
+  <si>
+    <t>Simple Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Simple Assault - Gender</t>
+  </si>
+  <si>
+    <t>Simple Assault - Disability</t>
+  </si>
+  <si>
+    <t>Simple Assault - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Larceny-Theft</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Race</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Religion</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Gender</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Disability</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Averett University</t>
@@ -709,298 +706,568 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2010.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>945.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1008,19 +1275,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
-        <v>945.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -1283,19 +1550,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
-        <v>101.0</v>
+        <v>696.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -1558,19 +1825,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
-        <v>696.0</v>
+        <v>1688.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1833,19 +2100,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
-        <v>1688.0</v>
+        <v>4916.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -2108,19 +2375,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
-        <v>4916.0</v>
+        <v>8000.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -2383,19 +2650,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
-        <v>8000.0</v>
+        <v>1537.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -2658,19 +2925,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
-        <v>1537.0</v>
+        <v>790.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -2691,9 +2958,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M9">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N9">
         <v>0.0</v>
       </c>
       <c s="1" r="U9">
@@ -2933,19 +3197,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231970.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
-        <v>790.0</v>
+        <v>980.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -2966,6 +3230,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M10">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N10">
         <v>0.0</v>
       </c>
       <c s="1" r="U10">
@@ -3205,19 +3472,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
-        <v>980.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -3480,19 +3747,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
-        <v>1484.0</v>
+        <v>32562.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -3755,19 +4022,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
-        <v>32562.0</v>
+        <v>1058.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -3941,7 +4208,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR13">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BS13">
         <v>0.0</v>
@@ -3950,7 +4217,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BU13">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="BV13">
         <v>0.0</v>
@@ -4030,19 +4297,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
-        <v>1058.0</v>
+        <v>5254.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -4216,7 +4483,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BS14">
         <v>0.0</v>
@@ -4225,7 +4492,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BU14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="BV14">
         <v>0.0</v>
@@ -4305,19 +4572,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>5254.0</v>
+        <v>1024.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -4580,19 +4847,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>1024.0</v>
+        <v>19434.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -4858,13 +5125,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
         <v>19434.0</v>
@@ -5133,13 +5400,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
         <v>19434.0</v>
@@ -5408,13 +5675,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
         <v>19434.0</v>
@@ -5680,19 +5947,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>19434.0</v>
+        <v>1032.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -5955,19 +6222,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B21">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
-        <v>1032.0</v>
+        <v>56625.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -6230,19 +6497,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
-        <v>56625.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -6505,19 +6772,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>4831.0</v>
+        <v>2643.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -6780,19 +7047,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232609.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>2643.0</v>
+        <v>1849.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -7055,19 +7322,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>1849.0</v>
+        <v>3572.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -7304,10 +7571,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CO25">
         <v>0.0</v>
@@ -7330,19 +7597,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>3572.0</v>
+        <v>6964.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -7579,10 +7846,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CO26">
         <v>0.0</v>
@@ -7605,19 +7872,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>6964.0</v>
+        <v>24466.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -7880,19 +8147,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>24466.0</v>
+        <v>9007.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -8129,10 +8396,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CN28">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="CO28">
         <v>0.0</v>
@@ -8155,19 +8422,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>9007.0</v>
+        <v>524.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -8404,10 +8671,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM29">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN29">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CO29">
         <v>0.0</v>
@@ -8430,19 +8697,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>524.0</v>
+        <v>1222.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -8705,19 +8972,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B31">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
-        <v>1222.0</v>
+        <v>5217.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -8980,19 +9247,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
-        <v>5217.0</v>
+        <v>1587.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -9255,19 +9522,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233338.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
-        <v>1587.0</v>
+        <v>2104.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -9530,19 +9797,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>2104.0</v>
+        <v>566.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -9805,19 +10072,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>566.0</v>
+        <v>3679.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -10080,19 +10347,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233541.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>3679.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -10113,9 +10380,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M36">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N36">
         <v>0.0</v>
       </c>
       <c s="1" r="U36">
@@ -10355,19 +10619,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B37">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>98.0</v>
+        <v>777.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -10388,6 +10652,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M37">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N37">
         <v>0.0</v>
       </c>
       <c s="1" r="U37">
@@ -10627,19 +10894,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
-        <v>777.0</v>
+        <v>760.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -10902,19 +11169,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
-        <v>760.0</v>
+        <v>1990.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -11177,19 +11444,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
-        <v>1990.0</v>
+        <v>273.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -11452,19 +11719,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
-        <v>273.0</v>
+        <v>5203.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -11727,19 +11994,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B42">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
-        <v>5203.0</v>
+        <v>4405.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -12002,19 +12269,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
-        <v>4405.0</v>
+        <v>24391.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -12277,19 +12544,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B44">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
-        <v>24391.0</v>
+        <v>32027.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -12555,13 +12822,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
         <v>32027.0</v>
@@ -12827,19 +13094,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B46">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
-        <v>32027.0</v>
+        <v>586.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -13076,7 +13343,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CN46">
         <v>0.0</v>
@@ -13085,7 +13352,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP46">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CQ46">
         <v>0.0</v>
@@ -13102,19 +13369,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
-        <v>586.0</v>
+        <v>1569.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -13351,7 +13618,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CM47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CN47">
         <v>0.0</v>
@@ -13360,7 +13627,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CP47">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CQ47">
         <v>0.0</v>
@@ -13377,19 +13644,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B48">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
-        <v>1569.0</v>
+        <v>31006.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -13655,13 +13922,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
         <v>31006.0</v>
@@ -13685,9 +13952,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M49">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N49">
         <v>0.0</v>
       </c>
       <c s="1" r="U49">
@@ -13930,13 +14194,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
         <v>31006.0</v>
@@ -13960,6 +14224,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M50">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N50">
         <v>0.0</v>
       </c>
       <c s="1" r="U50">
@@ -14202,13 +14469,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
         <v>31006.0</v>
@@ -14232,9 +14499,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M51">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N51">
         <v>0.0</v>
       </c>
       <c s="1" r="U51">
@@ -14474,19 +14738,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>31006.0</v>
+        <v>5634.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -14507,6 +14771,9 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M52">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N52">
         <v>0.0</v>
       </c>
       <c s="1" r="U52">
@@ -14746,19 +15013,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
-        <v>5634.0</v>
+        <v>1667.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -15021,19 +15288,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
-        <v>1667.0</v>
+        <v>555.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -15296,19 +15563,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B55">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>555.0</v>
+        <v>1279.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -15571,19 +15838,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>1279.0</v>
+        <v>2173.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -15846,19 +16113,19 @@
         <v>2010.0</v>
       </c>
       <c s="1" r="B57">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
-        <v>2173.0</v>
+        <v>226.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -16113,281 +16380,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS57">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c s="1" r="A58">
-        <v>2010.0</v>
-      </c>
-      <c s="1" r="B58">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C58">
-        <v>208</v>
-      </c>
-      <c s="1" r="D58">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E58">
-        <v>209</v>
-      </c>
-      <c s="1" r="F58">
-        <v>226.0</v>
-      </c>
-      <c s="1" r="G58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AC58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AD58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AE58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AF58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AG58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AH58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR58">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS58">
         <v>0.0</v>
       </c>
     </row>
